--- a/ExcelDatas/Datas/__beans__.xlsx
+++ b/ExcelDatas/Datas/__beans__.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="14775"/>
+    <workbookView windowWidth="27945" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -184,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1132,7 +1145,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L16" sqref="B4:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
